--- a/EJ2/Mediciones/TO_GRAPH_CASCADA.xlsx
+++ b/EJ2/Mediciones/TO_GRAPH_CASCADA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\ITBA\3er año\1er cuatri\TC\TP5\TP5\EJ2\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5960B545-7F65-44FA-94C8-2891211A9F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4289412-7E2D-4E76-8378-07367C9FB3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11657AA7-C636-4359-B16A-9A94277095DC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Frequency (Hz)</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Fase corregida</t>
+  </si>
+  <si>
+    <t>fase mas corregida</t>
   </si>
 </sst>
 </file>
@@ -394,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477D475A-76EA-42E7-834A-11F2681D45F0}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,8 +418,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2500</v>
       </c>
@@ -429,8 +435,12 @@
       <c r="D2">
         <v>-1.41817423704317</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>C2-360</f>
+        <v>-361.41817423704316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2535.1421666793403</v>
       </c>
@@ -443,8 +453,12 @@
       <c r="D3">
         <v>-3.9998144972245702</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">C3-360</f>
+        <v>-363.99981449722458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2571.5193052375998</v>
       </c>
@@ -457,8 +471,12 @@
       <c r="D4">
         <v>3.2757898680833502</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-356.72421013191666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2609.1748152624</v>
       </c>
@@ -471,8 +489,12 @@
       <c r="D5">
         <v>2.14227278306649</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-357.85772721693348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2648.1536214968801</v>
       </c>
@@ -485,8 +507,12 @@
       <c r="D6">
         <v>-2.6781926565599199</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-362.67819265655993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2688.5022274370203</v>
       </c>
@@ -499,8 +525,12 @@
       <c r="D7">
         <v>-3.6621267126191701</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-363.66212671261917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2730.2687708123799</v>
       </c>
@@ -513,8 +543,12 @@
       <c r="D8">
         <v>2.6809767872841199</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-357.31902321271588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2773.50308101666</v>
       </c>
@@ -527,8 +561,12 @@
       <c r="D9">
         <v>1.8121583393560801</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-358.18784166064393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2818.2567385563998</v>
       </c>
@@ -541,8 +579,12 @@
       <c r="D10">
         <v>-9.4768695913651495</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-369.47686959136513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2864.5831365889198</v>
       </c>
@@ -555,8 +597,12 @@
       <c r="D11">
         <v>-9.9940304634708497</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-369.99403046347084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2912.5375446227499</v>
       </c>
@@ -569,8 +615,12 @@
       <c r="D12">
         <v>1.93771838204189</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-358.06228161795809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2962.17717445672</v>
       </c>
@@ -583,8 +633,12 @@
       <c r="D13">
         <v>0.10927687900652901</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-359.89072312099347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3013.56124843621</v>
       </c>
@@ -597,8 +651,12 @@
       <c r="D14">
         <v>-3.3807553716214298</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-363.38075537162143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3066.7510701081501</v>
       </c>
@@ -611,8 +669,12 @@
       <c r="D15">
         <v>-5.1507378078431003</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-365.15073780784309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3121.8100973589299</v>
       </c>
@@ -625,8 +687,12 @@
       <c r="D16">
         <v>-6.5419730361597699</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-366.54197303615979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3178.8040181225597</v>
       </c>
@@ -639,8 +705,12 @@
       <c r="D17">
         <v>-7.7717070196653699</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-367.77170701966537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3237.8008287493703</v>
       </c>
@@ -653,8 +723,12 @@
       <c r="D18">
         <v>-8.8361068179087798</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-368.83610681790879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3298.8709151287803</v>
       </c>
@@ -667,8 +741,12 @@
       <c r="D19">
         <v>-1.8040512543793099</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-361.80405125437932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3362.0871366628598</v>
       </c>
@@ -681,8 +759,12 @@
       <c r="D20">
         <v>-9.3050714173595104</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-369.3050714173595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3427.52491319093</v>
       </c>
@@ -695,8 +777,12 @@
       <c r="D21">
         <v>-11.707795400973</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-371.707795400973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3495.2623149688798</v>
       </c>
@@ -709,8 +795,12 @@
       <c r="D22">
         <v>-0.26769577214179202</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-360.26769577214179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3565.3801558105301</v>
       </c>
@@ -723,8 +813,12 @@
       <c r="D23">
         <v>-5.03666009924242</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-365.0366600992424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3637.9620895022299</v>
       </c>
@@ -737,8 +831,12 @@
       <c r="D24">
         <v>-1.0256655908802099</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-361.02566559088024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3713.0947096056302</v>
       </c>
@@ -751,8 +849,12 @@
       <c r="D25">
         <v>-22.873862205667699</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>-382.87386220566771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3790.8676527677699</v>
       </c>
@@ -765,8 +867,12 @@
       <c r="D26">
         <v>-6.5392772127310304</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-366.53927721273101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3871.3737056616501</v>
       </c>
@@ -779,8 +885,12 @@
       <c r="D27">
         <v>-20.6360402522482</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>-380.63604025224822</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3954.7089156850302</v>
       </c>
@@ -793,8 +903,12 @@
       <c r="D28">
         <v>-41.815461706837802</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-401.81546170683782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4040.9727055492999</v>
       </c>
@@ -807,8 +921,12 @@
       <c r="D29">
         <v>-2.3208880535995999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-362.32088805359962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4130.26799189538</v>
       </c>
@@ -821,8 +939,12 @@
       <c r="D30">
         <v>-2.8117401898346599</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-362.81174018983467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4222.7013080779107</v>
       </c>
@@ -835,8 +957,12 @@
       <c r="D31">
         <v>-4.07274779171125</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-364.07274779171127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4318.3829312644502</v>
       </c>
@@ -849,8 +975,12 @@
       <c r="D32">
         <v>-13.254968808562801</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>-373.25496880856281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4417.4270140011595</v>
       </c>
@@ -863,8 +993,12 @@
       <c r="D33">
         <v>-106.70105168445301</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>-466.70105168445298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4519.9517204020103</v>
       </c>
@@ -877,8 +1011,12 @@
       <c r="D34">
         <v>-51.185852571393497</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>-411.18585257139353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4626.0793671239499</v>
       </c>
@@ -891,8 +1029,12 @@
       <c r="D35">
         <v>-141.05569220934399</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>-501.05569220934399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4735.9365692962801</v>
       </c>
@@ -905,8 +1047,12 @@
       <c r="D36">
         <v>-113.723076992053</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-473.723076992053</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4849.6543915782804</v>
       </c>
@@ -919,8 +1065,12 @@
       <c r="D37">
         <v>-179.204989432562</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-539.204989432562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4967.3685045253096</v>
       </c>
@@ -933,8 +1083,12 @@
       <c r="D38">
         <v>-174.91393527703599</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>-534.91393527703599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5089.2193464500506</v>
       </c>
@@ -947,8 +1101,12 @@
       <c r="D39">
         <v>-158.01330838989099</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>-518.01330838989099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5215.3522909717194</v>
       </c>
@@ -961,8 +1119,12 @@
       <c r="D40">
         <v>-177.233554589866</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>-537.233554589866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5345.9178204535301</v>
       </c>
@@ -975,8 +1137,12 @@
       <c r="D41">
         <v>-177.51639029685899</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>-537.51639029685896</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5481.0717055349705</v>
       </c>
@@ -989,8 +1155,12 @@
       <c r="D42">
         <v>-174.80060242955599</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-534.80060242955597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5620.9751909733004</v>
       </c>
@@ -1003,8 +1173,12 @@
       <c r="D43">
         <v>173.22699636655599</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-186.77300363344401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5765.7951880159299</v>
       </c>
@@ -1017,8 +1191,12 @@
       <c r="D44">
         <v>176.531808682335</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-183.468191317665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5915.7044735331301</v>
       </c>
@@ -1031,8 +1209,12 @@
       <c r="D45">
         <v>-170.62391741443699</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-530.62391741443696</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6070.8818961487495</v>
       </c>
@@ -1045,8 +1227,12 @@
       <c r="D46">
         <v>-176.57513345268001</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>-536.57513345268001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>6231.5125896148002</v>
       </c>
@@ -1059,8 +1245,12 @@
       <c r="D47">
         <v>179.96621219134701</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>-180.03378780865299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6397.7881936844597</v>
       </c>
@@ -1073,8 +1263,12 @@
       <c r="D48">
         <v>-179.74899257922999</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>-539.74899257922993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6569.9070827470496</v>
       </c>
@@ -1087,8 +1281,12 @@
       <c r="D49">
         <v>178.07443792798699</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>-181.92556207201301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6748.0746024977198</v>
       </c>
@@ -1101,8 +1299,12 @@
       <c r="D50">
         <v>177.398161484696</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>-182.601838515304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6932.50331492433</v>
       </c>
@@ -1115,8 +1317,12 @@
       <c r="D51">
         <v>177.925545547627</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>-182.074454452373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7123.4132519034902</v>
       </c>
@@ -1129,8 +1335,12 @@
       <c r="D52">
         <v>177.647715759802</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>-182.352284240198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>7321.0321777087102</v>
       </c>
@@ -1143,8 +1353,12 @@
       <c r="D53">
         <v>178.891478907741</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>-181.108521092259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>7525.5958607435796</v>
       </c>
@@ -1157,8 +1371,12 @@
       <c r="D54">
         <v>177.24000438348199</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>-182.75999561651801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>7737.3483548241902</v>
       </c>
@@ -1171,8 +1389,12 @@
       <c r="D55">
         <v>175.21979533277499</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>-184.78020466722501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>7956.5422903465596</v>
       </c>
@@ -1185,8 +1407,12 @@
       <c r="D56">
         <v>178.80157801286001</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>-181.19842198713999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>8183.4391756861396</v>
       </c>
@@ -1199,8 +1425,12 @@
       <c r="D57">
         <v>-179.933704822691</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>-539.93370482269097</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>8418.3097091893687</v>
       </c>
@@ -1213,8 +1443,12 @@
       <c r="D58">
         <v>177.235082110631</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>-182.764917889369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>8661.4341021290202</v>
       </c>
@@ -1227,8 +1461,12 @@
       <c r="D59">
         <v>175.62926806929099</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>-184.37073193070901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>8913.1024130091791</v>
       </c>
@@ -1241,8 +1479,12 @@
       <c r="D60">
         <v>176.498836086892</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>-183.501163913108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>9173.6148936181889</v>
       </c>
@@ -1255,8 +1497,12 @@
       <c r="D61">
         <v>178.44236676923799</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>-181.55763323076201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>9443.2823472428208</v>
       </c>
@@ -1269,8 +1515,12 @@
       <c r="D62">
         <v>175.06242871388599</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>-184.93757128611401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>9722.42649947071</v>
       </c>
@@ -1283,8 +1533,12 @@
       <c r="D63">
         <v>178.28066358327001</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>-181.71933641672999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>10011.38038202377</v>
       </c>
@@ -1297,8 +1551,12 @@
       <c r="D64">
         <v>178.512528208638</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>-181.487471791362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10310.48873008014</v>
       </c>
@@ -1311,8 +1569,12 @@
       <c r="D65">
         <v>175.68959357704301</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>-184.31040642295699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>10620.1083935591</v>
       </c>
@@ -1325,8 +1587,12 @@
       <c r="D66">
         <v>176.66720950464401</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>-183.33279049535599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>10940.60876285923</v>
       </c>
@@ -1339,8 +1605,12 @@
       <c r="D67">
         <v>176.050380937509</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">C67-360</f>
+        <v>-183.949619062491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>11272.37220955812</v>
       </c>
@@ -1353,8 +1623,12 @@
       <c r="D68">
         <v>175.30984321362899</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>-184.69015678637101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>11615.7945425989</v>
       </c>
@@ -1367,8 +1641,12 @@
       <c r="D69">
         <v>176.28242986700201</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>-183.71757013299799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>11971.285480508999</v>
       </c>
@@ -1381,8 +1659,12 @@
       <c r="D70">
         <v>174.96761640881601</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>-185.03238359118399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>12339.269140212</v>
       </c>
@@ -1395,8 +1677,12 @@
       <c r="D71">
         <v>174.44665001681901</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>-185.55334998318099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>12720.184543019601</v>
       </c>
@@ -1409,8 +1695,12 @@
       <c r="D72">
         <v>174.25453713000201</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>-185.74546286999799</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>13114.486138403399</v>
       </c>
@@ -1423,8 +1713,12 @@
       <c r="D73">
         <v>174.226825126292</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>-185.773174873708</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>13522.6443461741</v>
       </c>
@@ -1437,8 +1731,12 @@
       <c r="D74">
         <v>174.386638142403</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>-185.613361857597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>13945.146117713801</v>
       </c>
@@ -1451,8 +1749,12 @@
       <c r="D75">
         <v>173.539737683471</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>-186.460262316529</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14382.4955169313</v>
       </c>
@@ -1465,8 +1767,12 @@
       <c r="D76">
         <v>173.33468818593201</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>-186.66531181406799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14835.214321633201</v>
       </c>
@@ -1479,8 +1785,12 @@
       <c r="D77">
         <v>173.75063070095399</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>-186.24936929904601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>15303.842646028799</v>
       </c>
@@ -1493,8 +1803,12 @@
       <c r="D78">
         <v>172.58445024361399</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>-187.41554975638601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>15788.939585111</v>
       </c>
@@ -1507,8 +1821,12 @@
       <c r="D79">
         <v>172.51072439275799</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>-187.48927560724201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>16291.083881682</v>
       </c>
@@ -1521,8 +1839,12 @@
       <c r="D80">
         <v>172.51813522413201</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>-187.48186477586799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>16810.8746168203</v>
       </c>
@@ -1535,8 +1857,12 @@
       <c r="D81">
         <v>171.69716340429099</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>-188.30283659570901</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>17348.931924611101</v>
       </c>
@@ -1549,8 +1875,12 @@
       <c r="D82">
         <v>171.06730962005801</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>-188.93269037994199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>17905.897731995399</v>
       </c>
@@ -1563,8 +1893,12 @@
       <c r="D83">
         <v>170.51494251901801</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>-189.48505748098199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>18482.436524617398</v>
       </c>
@@ -1577,8 +1911,12 @@
       <c r="D84">
         <v>170.36712542868301</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>-189.63287457131699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>19079.236139586901</v>
       </c>
@@ -1591,8 +1929,12 @@
       <c r="D85">
         <v>169.58561616554201</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>-190.41438383445799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>19697.008586099801</v>
       </c>
@@ -1605,8 +1947,12 @@
       <c r="D86">
         <v>168.97724476289699</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>-191.02275523710301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>20336.490894898001</v>
       </c>
@@ -1619,8 +1965,12 @@
       <c r="D87">
         <v>168.119048551909</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>-191.880951448091</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>20998.445997580398</v>
       </c>
@@ -1633,8 +1983,12 @@
       <c r="D88">
         <v>167.27517740611199</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>-192.72482259388801</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>21683.6636368156</v>
       </c>
@@ -1647,8 +2001,12 @@
       <c r="D89">
         <v>166.481509937575</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>-193.518490062425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>22392.9613085403</v>
       </c>
@@ -1661,8 +2019,12 @@
       <c r="D90">
         <v>165.350185344229</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>-194.649814655771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>23127.185237270201</v>
       </c>
@@ -1675,8 +2037,12 @@
       <c r="D91">
         <v>164.28939198051199</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>-195.71060801948801</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>23887.2113856834</v>
       </c>
@@ -1689,8 +2055,12 @@
       <c r="D92">
         <v>162.95520908035701</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>-197.04479091964299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>24673.9464996848</v>
       </c>
@@ -1703,8 +2073,12 @@
       <c r="D93">
         <v>161.27662236536</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>-198.72337763464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25488.329190194901</v>
       </c>
@@ -1717,8 +2091,12 @@
       <c r="D94">
         <v>159.256710359951</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>-200.743289640049</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>26331.331052955698</v>
       </c>
@@ -1731,8 +2109,12 @@
       <c r="D95">
         <v>156.873587954415</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>-203.126412045585</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>27203.957827688599</v>
       </c>
@@ -1745,8 +2127,12 @@
       <c r="D96">
         <v>153.93955842951499</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>-206.06044157048501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>28107.250597988099</v>
       </c>
@@ -1759,8 +2145,12 @@
       <c r="D97">
         <v>150.26510129675299</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>-209.73489870324701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>29042.287033381599</v>
       </c>
@@ -1773,8 +2163,12 @@
       <c r="D98">
         <v>145.20566287284601</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>-214.79433712715399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>30010.182675039101</v>
       </c>
@@ -1787,8 +2181,12 @@
       <c r="D99">
         <v>138.26167135881599</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>-221.73832864118401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>31012.0922666638</v>
       </c>
@@ -1801,8 +2199,12 @@
       <c r="D100">
         <v>128.09352001121701</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>-231.90647998878299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>32049.211132155098</v>
       </c>
@@ -1815,8 +2217,12 @@
       <c r="D101">
         <v>112.168045086539</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>-247.831954913461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>33122.7766016838</v>
       </c>
@@ -1829,8 +2235,12 @@
       <c r="D102">
         <v>87.003836535483302</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>-272.99616346451671</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>34234.069487883797</v>
       </c>
@@ -1843,8 +2253,12 @@
       <c r="D103">
         <v>52.7670079671529</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>-307.23299203284711</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>35384.415613920202</v>
       </c>
@@ -1857,8 +2271,12 @@
       <c r="D104">
         <v>15.157543283989799</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>-344.84245671601019</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>36575.187395256798</v>
       </c>
@@ -1871,8 +2289,12 @@
       <c r="D105">
         <v>-26.225375307032799</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>-386.22537530703278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>37807.805477010101</v>
       </c>
@@ -1885,8 +2307,12 @@
       <c r="D106">
         <v>-70.938603913798303</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>-430.93860391379832</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>39083.740428844401</v>
       </c>
@@ -1899,8 +2325,12 @@
       <c r="D107">
         <v>-104.42192904583899</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>-464.42192904583897</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>40404.514499427998</v>
       </c>
@@ -1913,8 +2343,12 @@
       <c r="D108">
         <v>-124.174112619764</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>-484.174112619764</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>41771.703432545903</v>
       </c>
@@ -1927,8 +2361,12 @@
       <c r="D109">
         <v>-136.138972309396</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>-496.13897230939597</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>43186.938347033501</v>
       </c>
@@ -1941,8 +2379,12 @@
       <c r="D110">
         <v>-144.047346298165</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>-504.047346298165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>44651.907682776502</v>
       </c>
@@ -1955,8 +2397,12 @@
       <c r="D111">
         <v>-149.584375817465</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>-509.584375817465</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>46168.359215096301</v>
       </c>
@@ -1969,8 +2415,12 @@
       <c r="D112">
         <v>-153.74902458813699</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>-513.74902458813699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>47738.102139925999</v>
       </c>
@@ -1983,8 +2433,12 @@
       <c r="D113">
         <v>-156.95787717878599</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>-516.95787717878602</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>49363.009232263801</v>
       </c>
@@ -1997,8 +2451,12 @@
       <c r="D114">
         <v>-160.05386276039701</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>-520.05386276039701</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>51045.019080479004</v>
       </c>
@@ -2011,8 +2469,12 @@
       <c r="D115">
         <v>-161.68452056293501</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>-521.68452056293495</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>52786.138399136398</v>
       </c>
@@ -2025,8 +2487,12 @@
       <c r="D116">
         <v>-163.190831460863</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>-523.19083146086302</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>54588.444423098801</v>
       </c>
@@ -2039,8 +2505,12 @@
       <c r="D117">
         <v>-164.97253878184699</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>-524.97253878184699</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>56454.087385762403</v>
       </c>
@@ -2053,8 +2523,12 @@
       <c r="D118">
         <v>-168.71410970450199</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>-528.71410970450199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>58385.293084384102</v>
       </c>
@@ -2067,8 +2541,12 @@
       <c r="D119">
         <v>-167.507012352717</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>-527.50701235271697</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>60384.3655355589</v>
       </c>
@@ -2081,8 +2559,12 @@
       <c r="D120">
         <v>-168.406087387133</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>-528.40608738713297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>62453.689724016898</v>
       </c>
@@ -2095,8 +2577,12 @@
       <c r="D121">
         <v>-169.65765802961101</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>-529.65765802961096</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>64595.734448019299</v>
       </c>
@@ -2109,8 +2595,12 @@
       <c r="D122">
         <v>-170.73550912622801</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>-530.73550912622795</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>66813.055264747207</v>
       </c>
@@ -2123,8 +2613,12 @@
       <c r="D123">
         <v>-170.928388503137</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>-530.92838850313706</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>69108.297539198102</v>
       </c>
@@ -2137,8 +2631,12 @@
       <c r="D124">
         <v>-172.34637485707401</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>-532.34637485707401</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>71484.199600227294</v>
       </c>
@@ -2151,8 +2649,12 @@
       <c r="D125">
         <v>-171.48261449636999</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>-531.48261449636993</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>73943.596007499</v>
       </c>
@@ -2165,8 +2667,12 @@
       <c r="D126">
         <v>-173.489218216724</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>-533.489218216724</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>76489.420933245594</v>
       </c>
@@ -2179,8 +2685,12 @@
       <c r="D127">
         <v>-174.797210809376</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>-534.797210809376</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>79124.7116628691</v>
       </c>
@@ -2193,8 +2703,12 @@
       <c r="D128">
         <v>-174.35059338872099</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>-534.35059338872099</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>81852.612218561699</v>
       </c>
@@ -2207,8 +2721,12 @@
       <c r="D129">
         <v>-174.978624661796</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>-534.97862466179595</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>84676.377110267102</v>
       </c>
@@ -2221,8 +2739,12 @@
       <c r="D130">
         <v>-176.049638689288</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>-536.04963868928803</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>87599.375218460103</v>
       </c>
@@ -2235,8 +2757,12 @@
       <c r="D131">
         <v>-175.95352848810899</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="2">C131-360</f>
+        <v>-535.95352848810899</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>90625.093813374493</v>
       </c>
@@ -2249,8 +2775,12 @@
       <c r="D132">
         <v>-175.88764264432601</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>-535.88764264432598</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>93757.142715476293</v>
       </c>
@@ -2263,8 +2793,12 @@
       <c r="D133">
         <v>-179.32384765945099</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>-539.32384765945096</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>96999.2586021436</v>
       </c>
@@ -2277,8 +2811,12 @@
       <c r="D134">
         <v>-179.148909190523</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>-539.148909190523</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>100355.30946569391</v>
       </c>
@@ -2291,8 +2829,12 @@
       <c r="D135">
         <v>-179.39827706425999</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>-539.39827706426001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>103829.299228075</v>
       </c>
@@ -2306,8 +2848,12 @@
         <f>C136-360</f>
         <v>-181.37678561766799</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>-181.37678561766799</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>107425.372517728</v>
       </c>
@@ -2321,8 +2867,12 @@
         <f>C137-360</f>
         <v>-182.83938124509899</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>-182.83938124509899</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>111147.819614318</v>
       </c>
@@ -2333,11 +2883,15 @@
         <v>171.874504058415</v>
       </c>
       <c r="D138">
-        <f t="shared" ref="D138:D201" si="0">C138-360</f>
+        <f t="shared" ref="D138:D201" si="3">C138-360</f>
         <v>-188.125495941585</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>-188.125495941585</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>115001.081567231</v>
       </c>
@@ -2348,11 +2902,15 @@
         <v>175.92944638462501</v>
       </c>
       <c r="D139">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-184.07055361537499</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>-184.07055361537499</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>118989.75549395201</v>
       </c>
@@ -2363,11 +2921,15 @@
         <v>-173.62640918598299</v>
       </c>
       <c r="D140">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-533.62640918598299</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>-533.62640918598299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>123118.600064636</v>
       </c>
@@ -2378,11 +2940,15 @@
         <v>177.938458977328</v>
       </c>
       <c r="D141">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-182.061541022672</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>-182.061541022672</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>127392.541179416</v>
       </c>
@@ -2393,11 +2959,15 @@
         <v>-173.07049260057499</v>
       </c>
       <c r="D142">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-533.07049260057499</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>-533.07049260057499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>131816.67784522899</v>
       </c>
@@ -2408,11 +2978,15 @@
         <v>-177.04740393921301</v>
       </c>
       <c r="D143">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-537.04740393921304</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>-537.04740393921304</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>136396.28825916501</v>
       </c>
@@ -2423,11 +2997,15 @@
         <v>155.82908146345</v>
       </c>
       <c r="D144">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-204.17091853655</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>-204.17091853655</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>141136.83610559301</v>
       </c>
@@ -2438,11 +3016,15 @@
         <v>156.459902059679</v>
       </c>
       <c r="D145">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-203.540097940321</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>-203.540097940321</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146043.977074592</v>
       </c>
@@ -2453,11 +3035,15 @@
         <v>160.40262850370499</v>
       </c>
       <c r="D146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-199.59737149629501</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>-199.59737149629501</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>151123.565609443</v>
       </c>
@@ -2468,11 +3054,15 @@
         <v>169.14530521524301</v>
       </c>
       <c r="D147">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-190.85469478475699</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>-190.85469478475699</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>156381.66189124799</v>
       </c>
@@ -2483,11 +3073,15 @@
         <v>171.809462055126</v>
       </c>
       <c r="D148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-188.190537944874</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>-188.190537944874</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>161824.53906900401</v>
       </c>
@@ -2498,11 +3092,15 @@
         <v>163.16692640439899</v>
       </c>
       <c r="D149">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-196.83307359560101</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>-196.83307359560101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>167458.69074375599</v>
       </c>
@@ -2513,11 +3111,15 @@
         <v>165.17460751527801</v>
       </c>
       <c r="D150">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-194.82539248472199</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>-194.82539248472199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>173290.838715758</v>
       </c>
@@ -2528,11 +3130,15 @@
         <v>156.48435738307299</v>
       </c>
       <c r="D151">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-203.51564261692701</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>-203.51564261692701</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>179327.94100389199</v>
       </c>
@@ -2543,11 +3149,15 @@
         <v>159.39485366417699</v>
       </c>
       <c r="D152">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-200.60514633582301</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <f t="shared" si="2"/>
+        <v>-200.60514633582301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>185577.20014689499</v>
       </c>
@@ -2558,11 +3168,15 @@
         <v>159.917183508335</v>
       </c>
       <c r="D153">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-200.082816491665</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>-200.082816491665</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>192046.07179632399</v>
       </c>
@@ -2573,11 +3187,15 @@
         <v>152.455304075155</v>
       </c>
       <c r="D154">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-207.544695924845</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>-207.544695924845</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>198742.273611485</v>
       </c>
@@ -2588,11 +3206,15 @@
         <v>161.93314846275501</v>
       </c>
       <c r="D155">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-198.06685153724499</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>-198.06685153724499</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>205673.794466953</v>
       </c>
@@ -2603,11 +3225,15 @@
         <v>146.87256227519799</v>
       </c>
       <c r="D156">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-213.12743772480201</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>-213.12743772480201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>212848.903983664</v>
       </c>
@@ -2618,11 +3244,15 @@
         <v>145.19617180591101</v>
       </c>
       <c r="D157">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-214.80382819408899</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>-214.80382819408899</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>220276.162394955</v>
       </c>
@@ -2633,11 +3263,15 @@
         <v>145.188955509316</v>
       </c>
       <c r="D158">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-214.811044490684</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>-214.811044490684</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>227964.43075930601</v>
       </c>
@@ -2648,11 +3282,15 @@
         <v>141.553435361422</v>
       </c>
       <c r="D159">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-218.446564638578</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>-218.446564638578</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>235922.881531992</v>
       </c>
@@ -2663,11 +3301,15 @@
         <v>142.18691778694</v>
       </c>
       <c r="D160">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-217.81308221306</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>-217.81308221306</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>244161.009508241</v>
       </c>
@@ -2678,11 +3320,15 @@
         <v>130.555491812925</v>
       </c>
       <c r="D161">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-229.444508187075</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>-229.444508187075</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>252688.643150958</v>
       </c>
@@ -2693,11 +3339,15 @@
         <v>145.565222047373</v>
       </c>
       <c r="D162">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-214.434777952627</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>-214.434777952627</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>261515.95631652701</v>
       </c>
@@ -2708,11 +3358,15 @@
         <v>113.602938346748</v>
       </c>
       <c r="D163">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-246.397061653252</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>-246.397061653252</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>270653.48039269098</v>
       </c>
@@ -2723,11 +3377,15 @@
         <v>139.23684163955801</v>
       </c>
       <c r="D164">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-220.76315836044199</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>-220.76315836044199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>280112.11686297698</v>
       </c>
@@ -2738,11 +3396,15 @@
         <v>108.838888959244</v>
       </c>
       <c r="D165">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-251.161111040756</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>-251.161111040756</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>289903.15031265997</v>
       </c>
@@ -2753,11 +3415,15 @@
         <v>98.655735234226697</v>
       </c>
       <c r="D166">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-261.34426476577329</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <f t="shared" si="2"/>
+        <v>-261.34426476577329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>300038.26189179602</v>
       </c>
@@ -2768,11 +3434,15 @@
         <v>112.66929332399199</v>
       </c>
       <c r="D167">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-247.33070667600799</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <f t="shared" si="2"/>
+        <v>-247.33070667600799</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>310529.54325135902</v>
       </c>
@@ -2783,11 +3453,15 @@
         <v>106.255920153677</v>
       </c>
       <c r="D168">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-253.74407984632302</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <f t="shared" si="2"/>
+        <v>-253.74407984632302</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>321389.510969139</v>
       </c>
@@ -2798,11 +3472,15 @@
         <v>119.107075255083</v>
       </c>
       <c r="D169">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-240.892924744917</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <f t="shared" si="2"/>
+        <v>-240.892924744917</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>332631.12148259103</v>
       </c>
@@ -2813,11 +3491,15 @@
         <v>107.411975611016</v>
       </c>
       <c r="D170">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-252.588024388984</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170">
+        <f t="shared" si="2"/>
+        <v>-252.588024388984</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>344267.78654644999</v>
       </c>
@@ -2828,11 +3510,15 @@
         <v>104.546817673254</v>
       </c>
       <c r="D171">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-255.453182326746</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171">
+        <f t="shared" si="2"/>
+        <v>-255.453182326746</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>356313.38923357503</v>
       </c>
@@ -2843,11 +3529,15 @@
         <v>91.566509693734602</v>
       </c>
       <c r="D172">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-268.43349030626541</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <f t="shared" si="2"/>
+        <v>-268.43349030626541</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>368782.30049808399</v>
       </c>
@@ -2858,11 +3548,15 @@
         <v>110.808156995918</v>
       </c>
       <c r="D173">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-249.19184300408199</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <f t="shared" si="2"/>
+        <v>-249.19184300408199</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>381689.39632056101</v>
       </c>
@@ -2873,11 +3567,15 @@
         <v>68.045040999069897</v>
       </c>
       <c r="D174">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-291.9549590009301</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <f t="shared" si="2"/>
+        <v>-291.9549590009301</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>395050.075455777</v>
       </c>
@@ -2888,11 +3586,15 @@
         <v>116.09519839285601</v>
       </c>
       <c r="D175">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-243.90480160714401</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <f t="shared" si="2"/>
+        <v>-243.90480160714401</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>408880.277804112</v>
       </c>
@@ -2903,11 +3605,15 @@
         <v>99.719490846796404</v>
       </c>
       <c r="D176">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-260.28050915320358</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <f t="shared" si="2"/>
+        <v>-260.28050915320358</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>423196.50342858199</v>
       </c>
@@ -2918,11 +3624,15 @@
         <v>100.255671059364</v>
       </c>
       <c r="D177">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-259.74432894063602</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177">
+        <f t="shared" si="2"/>
+        <v>-259.74432894063602</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>438015.83224016603</v>
       </c>
@@ -2933,11 +3643,15 @@
         <v>114.631641857923</v>
       </c>
       <c r="D178">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-245.368358142077</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178">
+        <f t="shared" si="2"/>
+        <v>-245.368358142077</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>453355.94437492202</v>
       </c>
@@ -2948,11 +3662,15 @@
         <v>104.472982557645</v>
       </c>
       <c r="D179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-255.527017442355</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179">
+        <f t="shared" si="2"/>
+        <v>-255.527017442355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>469235.141287198</v>
       </c>
@@ -2963,11 +3681,15 @@
         <v>112.30749925104899</v>
       </c>
       <c r="D180">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-247.69250074895101</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180">
+        <f t="shared" si="2"/>
+        <v>-247.69250074895101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>485672.367584099</v>
       </c>
@@ -2978,11 +3700,15 @@
         <v>108.33066340849</v>
       </c>
       <c r="D181">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-251.66933659150999</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181">
+        <f t="shared" si="2"/>
+        <v>-251.66933659150999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>502687.23362727201</v>
       </c>
@@ -2993,11 +3719,15 @@
         <v>118.57409473490701</v>
       </c>
       <c r="D182">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-241.42590526509298</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182">
+        <f t="shared" si="2"/>
+        <v>-241.42590526509298</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>520300.03892896097</v>
       </c>
@@ -3008,11 +3738,15 @@
         <v>114.971965282764</v>
       </c>
       <c r="D183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-245.02803471723598</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183">
+        <f t="shared" si="2"/>
+        <v>-245.02803471723598</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>538531.79637025204</v>
       </c>
@@ -3023,11 +3757,15 @@
         <v>105.378861220004</v>
       </c>
       <c r="D184">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-254.62113877999599</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184">
+        <f t="shared" si="2"/>
+        <v>-254.62113877999599</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>557404.25727040297</v>
       </c>
@@ -3038,11 +3776,15 @@
         <v>90.665208828152004</v>
       </c>
       <c r="D185">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-269.334791171848</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185">
+        <f t="shared" si="2"/>
+        <v>-269.334791171848</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>576939.93733715697</v>
       </c>
@@ -3053,11 +3795,15 @@
         <v>101.91007912600401</v>
       </c>
       <c r="D186">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-258.08992087399599</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186">
+        <f t="shared" si="2"/>
+        <v>-258.08992087399599</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>597162.14352901001</v>
       </c>
@@ -3068,11 +3814,15 @@
         <v>99.235662517802396</v>
       </c>
       <c r="D187">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-260.76433748219762</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187">
+        <f t="shared" si="2"/>
+        <v>-260.76433748219762</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>618095.00186148204</v>
       </c>
@@ -3083,11 +3833,15 @@
         <v>78.616033455892506</v>
       </c>
       <c r="D188">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-281.38396654410747</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <f t="shared" si="2"/>
+        <v>-281.38396654410747</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>639763.48619054898</v>
       </c>
@@ -3098,11 +3852,15 @@
         <v>89.521863144205696</v>
       </c>
       <c r="D189">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-270.47813685579433</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189">
+        <f t="shared" si="2"/>
+        <v>-270.47813685579433</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>662193.44800759503</v>
       </c>
@@ -3113,11 +3871,15 @@
         <v>87.865258619357405</v>
       </c>
       <c r="D190">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-272.13474138064259</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190">
+        <f t="shared" si="2"/>
+        <v>-272.13474138064259</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>685411.64728142903</v>
       </c>
@@ -3128,11 +3890,15 @@
         <v>96.040016499573298</v>
       </c>
       <c r="D191">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-263.95998350042669</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191">
+        <f t="shared" si="2"/>
+        <v>-263.95998350042669</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>709445.78438413702</v>
       </c>
@@ -3143,11 +3909,15 @@
         <v>105.575898927419</v>
       </c>
       <c r="D192">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-254.42410107258098</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192">
+        <f t="shared" si="2"/>
+        <v>-254.42410107258098</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>734324.53313890297</v>
       </c>
@@ -3158,11 +3928,15 @@
         <v>95.578612170435605</v>
       </c>
       <c r="D193">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-264.42138782956442</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193">
+        <f t="shared" si="2"/>
+        <v>-264.42138782956442</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>760077.57502918295</v>
       </c>
@@ -3173,11 +3947,15 @@
         <v>100.577308641445</v>
       </c>
       <c r="D194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-259.42269135855497</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194">
+        <f t="shared" si="2"/>
+        <v>-259.42269135855497</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>786735.63461007096</v>
       </c>
@@ -3188,11 +3966,15 @@
         <v>101.747137664386</v>
       </c>
       <c r="D195">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-258.252862335614</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195">
+        <f t="shared" ref="E195:E202" si="4">C195-360</f>
+        <v>-258.252862335614</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>814330.51616409898</v>
       </c>
@@ -3203,11 +3985,15 @@
         <v>112.63704996458701</v>
       </c>
       <c r="D196">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-247.36295003541301</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196">
+        <f t="shared" si="4"/>
+        <v>-247.36295003541301</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>842895.14164519496</v>
       </c>
@@ -3218,11 +4004,15 @@
         <v>105.71393174500101</v>
       </c>
       <c r="D197">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-254.28606825499901</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197">
+        <f t="shared" si="4"/>
+        <v>-254.28606825499901</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>872463.58995607996</v>
       </c>
@@ -3233,11 +4023,15 @@
         <v>110.29701899471399</v>
       </c>
       <c r="D198">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-249.70298100528601</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198">
+        <f t="shared" si="4"/>
+        <v>-249.70298100528601</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>903071.13760595606</v>
       </c>
@@ -3248,11 +4042,15 @@
         <v>104.502859016038</v>
       </c>
       <c r="D199">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-255.497140983962</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199">
+        <f t="shared" si="4"/>
+        <v>-255.497140983962</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>934754.30079699098</v>
       </c>
@@ -3263,11 +4061,15 @@
         <v>106.879183819676</v>
       </c>
       <c r="D200">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-253.120816180324</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200">
+        <f t="shared" si="4"/>
+        <v>-253.120816180324</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>967550.87898981303</v>
       </c>
@@ -3278,11 +4080,15 @@
         <v>103.552675505674</v>
       </c>
       <c r="D201">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-256.44732449432598</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201">
+        <f t="shared" si="4"/>
+        <v>-256.44732449432598</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1001500</v>
       </c>
@@ -3293,7 +4099,11 @@
         <v>103.207531806815</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202" si="1">C202-360</f>
+        <f t="shared" ref="D202" si="5">C202-360</f>
+        <v>-256.79246819318502</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="4"/>
         <v>-256.79246819318502</v>
       </c>
     </row>
